--- a/utils/Scoring_sandbox.xlsx
+++ b/utils/Scoring_sandbox.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Github\surfconditions_database\utils\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A7DF538F-34AD-4104-BC8A-170816F33BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E056B7E4-04EE-477C-AEF6-3865DD5E0D1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3045" windowWidth="29040" windowHeight="17520" xr2:uid="{71C9BC05-62F1-4F9A-851E-640A66A14F14}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{71C9BC05-62F1-4F9A-851E-640A66A14F14}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>file</t>
   </si>
@@ -46,6 +46,15 @@
   </si>
   <si>
     <t>Wind speed</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>krijg je dus 20 strafpunten</t>
+  </si>
+  <si>
+    <t>krijg je dus 50 strafpunten</t>
   </si>
 </sst>
 </file>
@@ -398,10 +407,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4323C182-32F6-44E4-A4DD-33116BD89E57}">
-  <dimension ref="A5:H37"/>
+  <dimension ref="A5:I38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -432,754 +441,809 @@
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6">
         <f ca="1">RANDBETWEEN(0,30)/10</f>
-        <v>0</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="D6">
         <f ca="1">RANDBETWEEN(0,30)/10</f>
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="E6">
         <f ca="1">ABS(C6-D6)</f>
-        <v>1</v>
+        <v>1.3000000000000003</v>
       </c>
       <c r="F6">
         <f ca="1">E6/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.4333333333333334</v>
       </c>
       <c r="G6">
         <v>50</v>
       </c>
       <c r="H6" s="1">
         <f ca="1">G6*F6</f>
-        <v>16.666666666666664</v>
+        <v>21.666666666666671</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7">
         <f t="shared" ref="C7:D22" ca="1" si="0">RANDBETWEEN(0,30)/10</f>
-        <v>1.1000000000000001</v>
+        <v>1.3</v>
       </c>
       <c r="D7">
         <f t="shared" ca="1" si="0"/>
-        <v>2.1</v>
+        <v>0.8</v>
       </c>
       <c r="E7">
         <f t="shared" ref="E7:E22" ca="1" si="1">ABS(C7-D7)</f>
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F7">
         <f t="shared" ref="F7:F22" ca="1" si="2">E7/3</f>
-        <v>0.33333333333333331</v>
+        <v>0.16666666666666666</v>
       </c>
       <c r="G7">
         <v>50</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" ref="H7:H22" ca="1" si="3">G7*F7</f>
-        <v>16.666666666666664</v>
+        <v>8.3333333333333321</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="D8">
         <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
+        <v>1.6</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>0.7</v>
+        <v>0.29999999999999982</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>0.23333333333333331</v>
+        <v>9.9999999999999936E-2</v>
       </c>
       <c r="G8">
         <v>50</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>11.666666666666666</v>
+        <v>4.9999999999999964</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.4</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D9">
         <f t="shared" ca="1" si="0"/>
-        <v>2.6</v>
+        <v>0.7</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>0.20000000000000018</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>6.6666666666666721E-2</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G9">
         <v>50</v>
       </c>
       <c r="H9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>3.3333333333333361</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" ca="1" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ca="1" si="0"/>
         <v>2</v>
       </c>
-      <c r="D10">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.6</v>
-      </c>
       <c r="E10">
         <f t="shared" ca="1" si="1"/>
-        <v>0.39999999999999991</v>
+        <v>0.70000000000000018</v>
       </c>
       <c r="F10">
         <f t="shared" ca="1" si="2"/>
-        <v>0.1333333333333333</v>
+        <v>0.23333333333333339</v>
       </c>
       <c r="G10">
         <v>50</v>
       </c>
       <c r="H10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>6.6666666666666652</v>
+        <v>11.66666666666667</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="D11">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>2.4</v>
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="1"/>
-        <v>0.10000000000000009</v>
+        <v>1.5999999999999999</v>
       </c>
       <c r="F11">
         <f t="shared" ca="1" si="2"/>
-        <v>3.3333333333333361E-2</v>
+        <v>0.53333333333333333</v>
       </c>
       <c r="G11">
         <v>50</v>
       </c>
       <c r="H11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6666666666666681</v>
+        <v>26.666666666666668</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12">
         <f t="shared" ca="1" si="0"/>
-        <v>1.2</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="D12">
         <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
+        <v>0.3</v>
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29999999999999993</v>
+        <v>1.9999999999999998</v>
       </c>
       <c r="F12">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="G12">
         <v>50</v>
       </c>
       <c r="H12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9999999999999991</v>
+        <v>33.333333333333329</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="D13">
         <f t="shared" ca="1" si="0"/>
-        <v>0.4</v>
+        <v>0.1</v>
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="1"/>
-        <v>0.29999999999999993</v>
+        <v>2.9</v>
       </c>
       <c r="F13">
         <f t="shared" ca="1" si="2"/>
-        <v>9.9999999999999978E-2</v>
+        <v>0.96666666666666667</v>
       </c>
       <c r="G13">
         <v>50</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>4.9999999999999991</v>
+        <v>48.333333333333336</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14">
         <f t="shared" ca="1" si="0"/>
-        <v>0.5</v>
+        <v>2.6</v>
       </c>
       <c r="D14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="1"/>
-        <v>0.8</v>
+        <v>0.30000000000000027</v>
       </c>
       <c r="F14">
         <f t="shared" ca="1" si="2"/>
-        <v>0.26666666666666666</v>
+        <v>0.10000000000000009</v>
       </c>
       <c r="G14">
         <v>50</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>13.333333333333334</v>
+        <v>5.0000000000000044</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15">
         <f t="shared" ca="1" si="0"/>
-        <v>2.2999999999999998</v>
+        <v>0.8</v>
       </c>
       <c r="D15">
         <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
+        <v>1.2</v>
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="1"/>
-        <v>1.1999999999999997</v>
+        <v>0.39999999999999991</v>
       </c>
       <c r="F15">
         <f t="shared" ca="1" si="2"/>
-        <v>0.39999999999999991</v>
+        <v>0.1333333333333333</v>
       </c>
       <c r="G15">
         <v>50</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19.999999999999996</v>
+        <v>6.6666666666666652</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16">
         <f t="shared" ca="1" si="0"/>
+        <v>1.4</v>
+      </c>
+      <c r="D16">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F16">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G16">
+        <v>50</v>
+      </c>
+      <c r="H16" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.20000000000000018</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="2"/>
+        <v>6.6666666666666721E-2</v>
+      </c>
+      <c r="G17">
+        <v>50</v>
+      </c>
+      <c r="H17" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>3.3333333333333361</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.8</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.79999999999999982</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.26666666666666661</v>
+      </c>
+      <c r="G18">
+        <v>50</v>
+      </c>
+      <c r="H18" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>13.33333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C19">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.6</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="G19">
+        <v>50</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C20">
+        <f t="shared" ca="1" si="0"/>
         <v>0.9</v>
       </c>
-      <c r="D16">
-        <f t="shared" ca="1" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="E16">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F16">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.3666666666666667</v>
-      </c>
-      <c r="G16">
-        <v>50</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>18.333333333333336</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C17">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="D17">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.9</v>
-      </c>
-      <c r="E17">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="F17">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="G17">
-        <v>50</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>31.666666666666664</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18">
+      <c r="D20">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.6</v>
+      </c>
+      <c r="F20">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>26.666666666666668</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C21">
+        <f t="shared" ca="1" si="0"/>
+        <v>0.1</v>
+      </c>
+      <c r="D21">
+        <f t="shared" ca="1" si="0"/>
+        <v>1.2</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="1"/>
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="G21">
+        <v>50</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>18.333333333333332</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C22">
         <f t="shared" ca="1" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="D18">
-        <f t="shared" ca="1" si="0"/>
+      <c r="D22">
+        <f t="shared" ca="1" si="0"/>
+        <v>2.5</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="1"/>
         <v>1</v>
       </c>
-      <c r="E18">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.5</v>
-      </c>
-      <c r="F18">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="G18">
-        <v>50</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>8.3333333333333321</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.5</v>
-      </c>
-      <c r="D19">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="E19">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.2</v>
-      </c>
-      <c r="F19">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.39999999999999997</v>
-      </c>
-      <c r="G19">
-        <v>50</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C20">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D20">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.9</v>
-      </c>
-      <c r="E20">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.7999999999999998</v>
-      </c>
-      <c r="F20">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6</v>
-      </c>
-      <c r="G20">
-        <v>50</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C21">
-        <f t="shared" ca="1" si="0"/>
+      <c r="F22">
+        <f t="shared" ca="1" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="G22">
+        <v>50</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" ca="1" si="3"/>
+        <v>16.666666666666664</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C23">
         <v>0</v>
       </c>
-      <c r="D21">
-        <f t="shared" ca="1" si="0"/>
-        <v>1.9</v>
-      </c>
-      <c r="E21">
-        <f t="shared" ca="1" si="1"/>
-        <v>1.9</v>
-      </c>
-      <c r="F21">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.6333333333333333</v>
-      </c>
-      <c r="G21">
-        <v>50</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>31.666666666666664</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C22">
-        <f t="shared" ca="1" si="0"/>
-        <v>0.3</v>
-      </c>
-      <c r="D22">
-        <f t="shared" ca="1" si="0"/>
-        <v>2.8</v>
-      </c>
-      <c r="E22">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="F22">
-        <f t="shared" ca="1" si="2"/>
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="G22">
-        <v>50</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ca="1" si="3"/>
-        <v>41.666666666666671</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23" si="4">ABS(C23-D23)</f>
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23" si="5">E23/3</f>
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>50</v>
+      </c>
+      <c r="H23" s="1">
+        <f t="shared" ref="H23" si="6">G23*F23</f>
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>6</v>
       </c>
       <c r="C25">
         <f ca="1">RANDBETWEEN(0,70)</f>
-        <v>6</v>
+        <v>46</v>
       </c>
       <c r="D25">
         <f ca="1">RANDBETWEEN(0,70)</f>
-        <v>67</v>
+        <v>4</v>
       </c>
       <c r="E25">
-        <f t="shared" ref="E25" ca="1" si="4">ABS(C25-D25)</f>
-        <v>61</v>
+        <f t="shared" ref="E25" ca="1" si="7">ABS(C25-D25)</f>
+        <v>42</v>
       </c>
       <c r="F25">
         <f ca="1">E25/70</f>
-        <v>0.87142857142857144</v>
+        <v>0.6</v>
       </c>
       <c r="G25">
         <v>20</v>
       </c>
       <c r="H25" s="1">
-        <f t="shared" ref="H25" ca="1" si="5">G25*F25</f>
-        <v>17.428571428571431</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <f t="shared" ref="H25" ca="1" si="8">G25*F25</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="C26">
-        <f t="shared" ref="C26:C37" ca="1" si="6">RANDBETWEEN(0,70)</f>
+        <f t="shared" ref="C26:C37" ca="1" si="9">RANDBETWEEN(0,70)</f>
+        <v>24</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:D37" ca="1" si="10">RANDBETWEEN(0,70)</f>
+        <v>46</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26:E37" ca="1" si="11">ABS(C26-D26)</f>
+        <v>22</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26:F37" ca="1" si="12">E26/70</f>
+        <v>0.31428571428571428</v>
+      </c>
+      <c r="G26">
+        <v>20</v>
+      </c>
+      <c r="H26" s="1">
+        <f t="shared" ref="H26:H37" ca="1" si="13">G26*F26</f>
+        <v>6.2857142857142856</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C27">
+        <f t="shared" ca="1" si="9"/>
+        <v>64</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ca="1" si="10"/>
+        <v>33</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.44285714285714284</v>
+      </c>
+      <c r="G27">
+        <v>20</v>
+      </c>
+      <c r="H27" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.8571428571428577</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C28">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="D28">
+        <f t="shared" ca="1" si="10"/>
+        <v>61</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F28">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G28">
+        <v>20</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C29">
+        <f t="shared" ca="1" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ca="1" si="10"/>
+        <v>41</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="11"/>
+        <v>6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" ca="1" si="12"/>
+        <v>8.5714285714285715E-2</v>
+      </c>
+      <c r="G29">
+        <v>20</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.7142857142857144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <f t="shared" ca="1" si="9"/>
+        <v>65</v>
+      </c>
+      <c r="D30">
+        <f t="shared" ca="1" si="10"/>
+        <v>52</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="11"/>
+        <v>13</v>
+      </c>
+      <c r="F30">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.18571428571428572</v>
+      </c>
+      <c r="G30">
+        <v>20</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>3.7142857142857144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C31">
+        <f t="shared" ca="1" si="9"/>
+        <v>48</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ca="1" si="10"/>
+        <v>47</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="F31">
+        <f t="shared" ca="1" si="12"/>
+        <v>1.4285714285714285E-2</v>
+      </c>
+      <c r="G31">
+        <v>20</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C32">
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="D32">
+        <f t="shared" ca="1" si="10"/>
+        <v>44</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="11"/>
         <v>10</v>
       </c>
-      <c r="D26">
-        <f t="shared" ref="C26:D37" ca="1" si="7">RANDBETWEEN(0,70)</f>
-        <v>64</v>
-      </c>
-      <c r="E26">
-        <f t="shared" ref="E26:E37" ca="1" si="8">ABS(C26-D26)</f>
-        <v>54</v>
-      </c>
-      <c r="F26">
-        <f t="shared" ref="F26:F37" ca="1" si="9">E26/70</f>
-        <v>0.77142857142857146</v>
-      </c>
-      <c r="G26">
-        <v>20</v>
-      </c>
-      <c r="H26" s="1">
-        <f t="shared" ref="H26:H37" ca="1" si="10">G26*F26</f>
-        <v>15.428571428571429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C27">
-        <f t="shared" ca="1" si="6"/>
+      <c r="F32">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="G32">
+        <v>20</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.8571428571428568</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C33">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ca="1" si="10"/>
+        <v>29</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ca="1" si="12"/>
+        <v>5.7142857142857141E-2</v>
+      </c>
+      <c r="G33">
+        <v>20</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>1.1428571428571428</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C34">
+        <f t="shared" ca="1" si="9"/>
+        <v>23</v>
+      </c>
+      <c r="D34">
+        <f t="shared" ca="1" si="10"/>
+        <v>32</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="11"/>
+        <v>9</v>
+      </c>
+      <c r="F34">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.12857142857142856</v>
+      </c>
+      <c r="G34">
+        <v>20</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>2.5714285714285712</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C35">
+        <f t="shared" ca="1" si="9"/>
+        <v>47</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ca="1" si="10"/>
+        <v>49</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="11"/>
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ca="1" si="12"/>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="G35">
+        <v>20</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>0.5714285714285714</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C36">
+        <f t="shared" ca="1" si="9"/>
+        <v>27</v>
+      </c>
+      <c r="D36">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="11"/>
+        <v>21</v>
+      </c>
+      <c r="F36">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="G36">
+        <v>20</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="C37">
+        <f t="shared" ca="1" si="9"/>
+        <v>35</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ca="1" si="10"/>
+        <v>6</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="11"/>
+        <v>29</v>
+      </c>
+      <c r="F37">
+        <f t="shared" ca="1" si="12"/>
+        <v>0.41428571428571431</v>
+      </c>
+      <c r="G37">
+        <v>20</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="13"/>
+        <v>8.2857142857142865</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>7</v>
       </c>
-      <c r="D27">
-        <f t="shared" ca="1" si="7"/>
-        <v>66</v>
-      </c>
-      <c r="E27">
-        <f t="shared" ca="1" si="8"/>
-        <v>59</v>
-      </c>
-      <c r="F27">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.84285714285714286</v>
-      </c>
-      <c r="G27">
-        <v>20</v>
-      </c>
-      <c r="H27" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>16.857142857142858</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C28">
-        <f t="shared" ca="1" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="D28">
-        <f t="shared" ca="1" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ca="1" si="8"/>
+      <c r="C38">
+        <v>0</v>
+      </c>
+      <c r="D38">
+        <v>70</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ref="E38" si="14">ABS(C38-D38)</f>
+        <v>70</v>
+      </c>
+      <c r="F38">
+        <f t="shared" ref="F38" si="15">E38/70</f>
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>20</v>
+      </c>
+      <c r="H38" s="1">
+        <f>G38*F38</f>
+        <v>20</v>
+      </c>
+      <c r="I38" t="s">
         <v>8</v>
-      </c>
-      <c r="F28">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.11428571428571428</v>
-      </c>
-      <c r="G28">
-        <v>20</v>
-      </c>
-      <c r="H28" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>2.2857142857142856</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C29">
-        <f t="shared" ca="1" si="6"/>
-        <v>16</v>
-      </c>
-      <c r="D29">
-        <f t="shared" ca="1" si="7"/>
-        <v>9</v>
-      </c>
-      <c r="E29">
-        <f t="shared" ca="1" si="8"/>
-        <v>7</v>
-      </c>
-      <c r="F29">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.1</v>
-      </c>
-      <c r="G29">
-        <v>20</v>
-      </c>
-      <c r="H29" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C30">
-        <f t="shared" ca="1" si="6"/>
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <f t="shared" ca="1" si="7"/>
-        <v>52</v>
-      </c>
-      <c r="E30">
-        <f t="shared" ca="1" si="8"/>
-        <v>51</v>
-      </c>
-      <c r="F30">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.72857142857142854</v>
-      </c>
-      <c r="G30">
-        <v>20</v>
-      </c>
-      <c r="H30" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>14.571428571428571</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C31">
-        <f t="shared" ca="1" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="D31">
-        <f t="shared" ca="1" si="7"/>
-        <v>10</v>
-      </c>
-      <c r="E31">
-        <f t="shared" ca="1" si="8"/>
-        <v>6</v>
-      </c>
-      <c r="F31">
-        <f t="shared" ca="1" si="9"/>
-        <v>8.5714285714285715E-2</v>
-      </c>
-      <c r="G31">
-        <v>20</v>
-      </c>
-      <c r="H31" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.7142857142857144</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C32">
-        <f t="shared" ca="1" si="6"/>
-        <v>60</v>
-      </c>
-      <c r="D32">
-        <f t="shared" ca="1" si="7"/>
-        <v>40</v>
-      </c>
-      <c r="E32">
-        <f t="shared" ca="1" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="F32">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="G32">
-        <v>20</v>
-      </c>
-      <c r="H32" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>5.7142857142857135</v>
-      </c>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C33">
-        <f t="shared" ca="1" si="6"/>
-        <v>57</v>
-      </c>
-      <c r="D33">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="E33">
-        <f t="shared" ca="1" si="8"/>
-        <v>32</v>
-      </c>
-      <c r="F33">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.45714285714285713</v>
-      </c>
-      <c r="G33">
-        <v>20</v>
-      </c>
-      <c r="H33" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>9.1428571428571423</v>
-      </c>
-    </row>
-    <row r="34" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C34">
-        <f t="shared" ca="1" si="6"/>
-        <v>39</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ca="1" si="7"/>
-        <v>25</v>
-      </c>
-      <c r="E34">
-        <f t="shared" ca="1" si="8"/>
-        <v>14</v>
-      </c>
-      <c r="F34">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.2</v>
-      </c>
-      <c r="G34">
-        <v>20</v>
-      </c>
-      <c r="H34" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="35" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C35">
-        <f t="shared" ca="1" si="6"/>
-        <v>48</v>
-      </c>
-      <c r="D35">
-        <f t="shared" ca="1" si="7"/>
-        <v>31</v>
-      </c>
-      <c r="E35">
-        <f t="shared" ca="1" si="8"/>
-        <v>17</v>
-      </c>
-      <c r="F35">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.24285714285714285</v>
-      </c>
-      <c r="G35">
-        <v>20</v>
-      </c>
-      <c r="H35" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.8571428571428568</v>
-      </c>
-    </row>
-    <row r="36" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C36">
-        <f t="shared" ca="1" si="6"/>
-        <v>10</v>
-      </c>
-      <c r="D36">
-        <f t="shared" ca="1" si="7"/>
-        <v>49</v>
-      </c>
-      <c r="E36">
-        <f t="shared" ca="1" si="8"/>
-        <v>39</v>
-      </c>
-      <c r="F36">
-        <f t="shared" ca="1" si="9"/>
-        <v>0.55714285714285716</v>
-      </c>
-      <c r="G36">
-        <v>20</v>
-      </c>
-      <c r="H36" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>11.142857142857142</v>
-      </c>
-    </row>
-    <row r="37" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C37">
-        <f t="shared" ca="1" si="6"/>
-        <v>61</v>
-      </c>
-      <c r="D37">
-        <f t="shared" ca="1" si="7"/>
-        <v>57</v>
-      </c>
-      <c r="E37">
-        <f t="shared" ca="1" si="8"/>
-        <v>4</v>
-      </c>
-      <c r="F37">
-        <f t="shared" ca="1" si="9"/>
-        <v>5.7142857142857141E-2</v>
-      </c>
-      <c r="G37">
-        <v>20</v>
-      </c>
-      <c r="H37" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>1.1428571428571428</v>
       </c>
     </row>
   </sheetData>
